--- a/artfynd/A 17055-2023.xlsx
+++ b/artfynd/A 17055-2023.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67706178</v>
+        <v>67710770</v>
       </c>
       <c r="B5" t="n">
-        <v>89406</v>
+        <v>77588</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,37 +1032,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>864</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>539927.9736440091</v>
+        <v>539613.1683909117</v>
       </c>
       <c r="R5" t="n">
-        <v>7229598.761921383</v>
+        <v>7229357.106561611</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1112,41 +1112,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67710770</v>
+        <v>67710744</v>
       </c>
       <c r="B6" t="n">
-        <v>77588</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,34 +1144,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>539613.1683909117</v>
+        <v>539570.9188615695</v>
       </c>
       <c r="R6" t="n">
-        <v>7229357.106561611</v>
+        <v>7229338.891026534</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1218,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1228,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67710760</v>
+        <v>67710803</v>
       </c>
       <c r="B7" t="n">
-        <v>89338</v>
+        <v>89410</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1271,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>112</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1295,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>539893.0507496882</v>
+        <v>539565.991271107</v>
       </c>
       <c r="R7" t="n">
-        <v>7229412.138169388</v>
+        <v>7229424.130576663</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1330,7 +1320,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1340,7 +1330,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,10 +1357,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67710775</v>
+        <v>67710732</v>
       </c>
       <c r="B8" t="n">
-        <v>77588</v>
+        <v>73693</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1373,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>539975.8898702682</v>
+        <v>539530.0206916082</v>
       </c>
       <c r="R8" t="n">
-        <v>7229601.930808795</v>
+        <v>7229313.970340237</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1442,7 +1432,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1452,7 +1442,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1479,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67710808</v>
+        <v>67710789</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,21 +1485,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1519,10 +1509,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>539973.9678606169</v>
+        <v>539552.9401369612</v>
       </c>
       <c r="R9" t="n">
-        <v>7229432.981737692</v>
+        <v>7229424.796336777</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1554,7 +1544,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1564,7 +1554,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1591,10 +1581,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67706246</v>
+        <v>67706232</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>73693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,25 +1593,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1631,10 +1621,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>539874.6707526103</v>
+        <v>539537.8281410345</v>
       </c>
       <c r="R10" t="n">
-        <v>7229495.933203975</v>
+        <v>7229516.620457728</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1718,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67710744</v>
+        <v>67706163</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,42 +1724,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>539570.9188615695</v>
+        <v>539536.9925042229</v>
       </c>
       <c r="R11" t="n">
-        <v>7229338.891026534</v>
+        <v>7229516.189074448</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1798,7 +1783,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1808,7 +1793,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1819,26 +1804,41 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67710803</v>
+        <v>67710731</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,21 +1851,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>539565.991271107</v>
+        <v>539536.8057245283</v>
       </c>
       <c r="R12" t="n">
-        <v>7229424.130576663</v>
+        <v>7229372.893212735</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67710732</v>
+        <v>67710771</v>
       </c>
       <c r="B13" t="n">
-        <v>73693</v>
+        <v>77588</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>539530.0206916082</v>
+        <v>539663.8247409762</v>
       </c>
       <c r="R13" t="n">
-        <v>7229313.970340237</v>
+        <v>7229375.855628529</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2059,10 +2059,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67710789</v>
+        <v>67710767</v>
       </c>
       <c r="B14" t="n">
-        <v>89406</v>
+        <v>89673</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>539552.9401369612</v>
+        <v>539609.0181813082</v>
       </c>
       <c r="R14" t="n">
-        <v>7229424.796336777</v>
+        <v>7229352.848662892</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2171,10 +2171,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67710748</v>
+        <v>67710779</v>
       </c>
       <c r="B15" t="n">
-        <v>56395</v>
+        <v>77588</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,39 +2187,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>540019.8401054546</v>
+        <v>539553.0556394423</v>
       </c>
       <c r="R15" t="n">
-        <v>7229463.017647208</v>
+        <v>7229321.842682262</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2251,7 +2246,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2261,7 +2256,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2288,10 +2283,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67706232</v>
+        <v>67710745</v>
       </c>
       <c r="B16" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2304,37 +2299,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>539537.8281410345</v>
+        <v>539616.864150109</v>
       </c>
       <c r="R16" t="n">
-        <v>7229516.620457728</v>
+        <v>7229363.879731895</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2384,41 +2384,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67706163</v>
+        <v>67710730</v>
       </c>
       <c r="B17" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2431,37 +2416,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>539536.9925042229</v>
+        <v>539560.0629258815</v>
       </c>
       <c r="R17" t="n">
-        <v>7229516.189074448</v>
+        <v>7229426.992750257</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2490,7 +2475,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2500,7 +2485,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2511,41 +2496,26 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67710780</v>
+        <v>67710798</v>
       </c>
       <c r="B18" t="n">
-        <v>55608</v>
+        <v>89734</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,52 +2524,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>102612</v>
+        <v>2063</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>539887.110713792</v>
+        <v>539521.9214653133</v>
       </c>
       <c r="R18" t="n">
-        <v>7229415.839992717</v>
+        <v>7229321.846464843</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2631,7 +2587,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2641,7 +2597,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2668,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67710773</v>
+        <v>67710766</v>
       </c>
       <c r="B19" t="n">
-        <v>77588</v>
+        <v>89673</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,21 +2640,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>864</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2708,10 +2664,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>539984.8818256899</v>
+        <v>539575.8992003654</v>
       </c>
       <c r="R19" t="n">
-        <v>7229465.906234877</v>
+        <v>7229344.00046342</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2743,7 +2699,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2753,7 +2709,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2780,10 +2736,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67706164</v>
+        <v>67706177</v>
       </c>
       <c r="B20" t="n">
-        <v>81236</v>
+        <v>89406</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2796,21 +2752,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2820,10 +2776,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>539845.4602696267</v>
+        <v>539534.5080710157</v>
       </c>
       <c r="R20" t="n">
-        <v>7229509.406141053</v>
+        <v>7229513.214405228</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2907,10 +2863,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67706228</v>
+        <v>67710821</v>
       </c>
       <c r="B21" t="n">
-        <v>89392</v>
+        <v>90052</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2919,41 +2875,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>898</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>539856.6246416919</v>
+        <v>539525.1406392561</v>
       </c>
       <c r="R21" t="n">
-        <v>7229523.843684183</v>
+        <v>7229332.815533601</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2982,7 +2938,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2992,7 +2948,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3003,41 +2959,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67710731</v>
+        <v>67710772</v>
       </c>
       <c r="B22" t="n">
-        <v>73693</v>
+        <v>77588</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3050,21 +2991,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3074,10 +3015,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>539536.8057245283</v>
+        <v>539731.1425143741</v>
       </c>
       <c r="R22" t="n">
-        <v>7229372.893212735</v>
+        <v>7229407.015819971</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3109,7 +3050,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3119,7 +3060,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3146,10 +3087,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67710771</v>
+        <v>67710790</v>
       </c>
       <c r="B23" t="n">
-        <v>77588</v>
+        <v>89406</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3162,21 +3103,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3186,10 +3127,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>539663.8247409762</v>
+        <v>539543.0432979728</v>
       </c>
       <c r="R23" t="n">
-        <v>7229375.855628529</v>
+        <v>7229346.922569324</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3221,7 +3162,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3231,7 +3172,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3258,7 +3199,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67710747</v>
+        <v>67710743</v>
       </c>
       <c r="B24" t="n">
         <v>56395</v>
@@ -3303,10 +3244,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>540012.1608302678</v>
+        <v>539568.1317676745</v>
       </c>
       <c r="R24" t="n">
-        <v>7229439.80179003</v>
+        <v>7229327.087245424</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3338,7 +3279,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3348,7 +3289,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3375,10 +3316,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67710767</v>
+        <v>67710811</v>
       </c>
       <c r="B25" t="n">
-        <v>89673</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3391,21 +3332,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3415,10 +3356,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>539609.0181813082</v>
+        <v>539530.162104459</v>
       </c>
       <c r="R25" t="n">
-        <v>7229352.848662892</v>
+        <v>7229492.145932948</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3450,7 +3391,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3460,7 +3401,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3487,10 +3428,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67710779</v>
+        <v>67710738</v>
       </c>
       <c r="B26" t="n">
-        <v>77588</v>
+        <v>89392</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3503,21 +3444,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>864</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3527,10 +3468,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>539553.0556394423</v>
+        <v>539549.9086617061</v>
       </c>
       <c r="R26" t="n">
-        <v>7229321.842682262</v>
+        <v>7229336.928908376</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3562,7 +3503,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3572,7 +3513,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3599,10 +3540,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67710774</v>
+        <v>67710754</v>
       </c>
       <c r="B27" t="n">
-        <v>77588</v>
+        <v>90160</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3611,25 +3552,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>864</v>
+        <v>918</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tajgaskinn</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Laurilia sulcata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Burt) Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3639,10 +3580,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>539977.8280576558</v>
+        <v>539553.9107346898</v>
       </c>
       <c r="R27" t="n">
-        <v>7229583.048203739</v>
+        <v>7229415.144295254</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3674,7 +3615,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3684,7 +3625,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3711,10 +3652,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67710745</v>
+        <v>67710768</v>
       </c>
       <c r="B28" t="n">
-        <v>56395</v>
+        <v>89673</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3727,39 +3668,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>539616.864150109</v>
+        <v>539664.1100763381</v>
       </c>
       <c r="R28" t="n">
-        <v>7229363.879731895</v>
+        <v>7229385.944850254</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3791,7 +3727,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3801,7 +3737,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3828,10 +3764,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67710730</v>
+        <v>67710765</v>
       </c>
       <c r="B29" t="n">
-        <v>73693</v>
+        <v>89673</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,21 +3780,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6440</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3868,10 +3804,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>539560.0629258815</v>
+        <v>539525.1406392561</v>
       </c>
       <c r="R29" t="n">
-        <v>7229426.992750257</v>
+        <v>7229332.815533601</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3903,7 +3839,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3913,7 +3849,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3940,10 +3876,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67710798</v>
+        <v>67710802</v>
       </c>
       <c r="B30" t="n">
-        <v>89734</v>
+        <v>89410</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3952,25 +3888,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2063</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3980,10 +3916,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>539521.9214653133</v>
+        <v>539550.813433812</v>
       </c>
       <c r="R30" t="n">
-        <v>7229321.846464843</v>
+        <v>7229457.964914861</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4015,7 +3951,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4025,7 +3961,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4052,10 +3988,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67710766</v>
+        <v>67710742</v>
       </c>
       <c r="B31" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4068,34 +4004,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>539575.8992003654</v>
+        <v>539531.9088621398</v>
       </c>
       <c r="R31" t="n">
-        <v>7229344.00046342</v>
+        <v>7229392.998461411</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4127,7 +4068,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4137,7 +4078,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4164,10 +4105,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67706219</v>
+        <v>67710791</v>
       </c>
       <c r="B32" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4180,42 +4121,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>539926.2054055299</v>
+        <v>539530.1997320191</v>
       </c>
       <c r="R32" t="n">
-        <v>7229573.946429383</v>
+        <v>7229332.042725397</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4244,7 +4180,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4254,7 +4190,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4269,22 +4205,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67706234</v>
+        <v>67710819</v>
       </c>
       <c r="B33" t="n">
-        <v>73693</v>
+        <v>85703</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4297,37 +4233,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6440</v>
+        <v>510</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>539850.3223403923</v>
+        <v>539553.0556394423</v>
       </c>
       <c r="R33" t="n">
-        <v>7229554.433527336</v>
+        <v>7229321.842682262</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4356,7 +4292,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4366,7 +4302,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4377,41 +4313,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67706177</v>
+        <v>67710739</v>
       </c>
       <c r="B34" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4424,37 +4345,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539534.5080710157</v>
+        <v>539572.1639478829</v>
       </c>
       <c r="R34" t="n">
-        <v>7229513.214405228</v>
+        <v>7229340.168385772</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4483,7 +4404,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4493,7 +4414,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4504,41 +4425,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67710821</v>
+        <v>67710758</v>
       </c>
       <c r="B35" t="n">
-        <v>90052</v>
+        <v>78596</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4547,25 +4453,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>898</v>
+        <v>6462</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4575,10 +4481,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539525.1406392561</v>
+        <v>539709.8590008343</v>
       </c>
       <c r="R35" t="n">
-        <v>7229332.815533601</v>
+        <v>7229394.123140741</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4610,7 +4516,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4620,7 +4526,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4647,10 +4553,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67710772</v>
+        <v>67710783</v>
       </c>
       <c r="B36" t="n">
-        <v>77588</v>
+        <v>89388</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4663,21 +4569,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>864</v>
+        <v>1108</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4687,10 +4593,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539731.1425143741</v>
+        <v>539557.9573167545</v>
       </c>
       <c r="R36" t="n">
-        <v>7229407.015819971</v>
+        <v>7229332.834304744</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4722,7 +4628,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4732,7 +4638,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4759,10 +4665,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67710777</v>
+        <v>67710812</v>
       </c>
       <c r="B37" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4775,21 +4681,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4799,10 +4705,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539893.0507496882</v>
+        <v>539550.8961394634</v>
       </c>
       <c r="R37" t="n">
-        <v>7229412.138169388</v>
+        <v>7229326.016109279</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4834,7 +4740,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4844,7 +4750,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4871,10 +4777,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67710734</v>
+        <v>67710807</v>
       </c>
       <c r="B38" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4887,21 +4793,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4911,10 +4817,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539989.1279737254</v>
+        <v>539689.8428881743</v>
       </c>
       <c r="R38" t="n">
-        <v>7229463.022180794</v>
+        <v>7229380.82735754</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4946,7 +4852,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4956,7 +4862,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4983,7 +4889,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67710790</v>
+        <v>67710793</v>
       </c>
       <c r="B39" t="n">
         <v>89406</v>
@@ -5023,10 +4929,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539543.0432979728</v>
+        <v>539666.1343749765</v>
       </c>
       <c r="R39" t="n">
-        <v>7229346.922569324</v>
+        <v>7229391.855145359</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5058,7 +4964,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5068,7 +4974,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5095,10 +5001,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67710743</v>
+        <v>67710794</v>
       </c>
       <c r="B40" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5111,39 +5017,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539568.1317676745</v>
+        <v>539683.0166307472</v>
       </c>
       <c r="R40" t="n">
-        <v>7229327.087245424</v>
+        <v>7229387.879516553</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5175,7 +5076,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5185,7 +5086,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5212,10 +5113,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67710811</v>
+        <v>67706178</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5228,37 +5129,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539530.162104459</v>
+        <v>539927.9736440091</v>
       </c>
       <c r="R41" t="n">
-        <v>7229492.145932948</v>
+        <v>7229598.761921383</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5287,7 +5188,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5297,7 +5198,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5308,26 +5209,41 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67706165</v>
+        <v>67710760</v>
       </c>
       <c r="B42" t="n">
-        <v>81236</v>
+        <v>89338</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5340,37 +5256,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1312</v>
+        <v>112</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539854.5271692498</v>
+        <v>539893.0507496882</v>
       </c>
       <c r="R42" t="n">
-        <v>7229523.395195113</v>
+        <v>7229412.138169388</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5399,7 +5315,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5409,7 +5325,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5420,41 +5336,26 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67710738</v>
+        <v>67710775</v>
       </c>
       <c r="B43" t="n">
-        <v>89392</v>
+        <v>77588</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5467,21 +5368,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1202</v>
+        <v>864</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5491,10 +5392,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539549.9086617061</v>
+        <v>539975.8898702682</v>
       </c>
       <c r="R43" t="n">
-        <v>7229336.928908376</v>
+        <v>7229601.930808795</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5526,7 +5427,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5536,7 +5437,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5563,10 +5464,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67710754</v>
+        <v>67710808</v>
       </c>
       <c r="B44" t="n">
-        <v>90160</v>
+        <v>89410</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5575,25 +5476,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>918</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tajgaskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Laurilia sulcata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Burt) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5603,10 +5504,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539553.9107346898</v>
+        <v>539973.9678606169</v>
       </c>
       <c r="R44" t="n">
-        <v>7229415.144295254</v>
+        <v>7229432.981737692</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5638,7 +5539,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5648,7 +5549,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5675,10 +5576,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67710795</v>
+        <v>67706246</v>
       </c>
       <c r="B45" t="n">
-        <v>89406</v>
+        <v>89356</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5687,41 +5588,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539880.9881427098</v>
+        <v>539874.6707526103</v>
       </c>
       <c r="R45" t="n">
-        <v>7229401.890061609</v>
+        <v>7229495.933203975</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5750,7 +5651,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5760,7 +5661,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5771,26 +5672,41 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67706233</v>
+        <v>67710748</v>
       </c>
       <c r="B46" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5803,37 +5719,42 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>539847.9557259007</v>
+        <v>540019.8401054546</v>
       </c>
       <c r="R46" t="n">
-        <v>7229511.540819381</v>
+        <v>7229463.017647208</v>
       </c>
       <c r="S46" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5862,7 +5783,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5872,7 +5793,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5883,41 +5804,26 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67710768</v>
+        <v>67710780</v>
       </c>
       <c r="B47" t="n">
-        <v>89673</v>
+        <v>55608</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5930,34 +5836,48 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>658</v>
+        <v>102612</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539664.1100763381</v>
+        <v>539887.110713792</v>
       </c>
       <c r="R47" t="n">
-        <v>7229385.944850254</v>
+        <v>7229415.839992717</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5989,7 +5909,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5999,7 +5919,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6026,10 +5946,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67710765</v>
+        <v>67710773</v>
       </c>
       <c r="B48" t="n">
-        <v>89673</v>
+        <v>77588</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6042,21 +5962,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>658</v>
+        <v>864</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6066,10 +5986,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539525.1406392561</v>
+        <v>539984.8818256899</v>
       </c>
       <c r="R48" t="n">
-        <v>7229332.815533601</v>
+        <v>7229465.906234877</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6101,7 +6021,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6111,7 +6031,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6138,10 +6058,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67710802</v>
+        <v>67706164</v>
       </c>
       <c r="B49" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6154,37 +6074,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539550.813433812</v>
+        <v>539845.4602696267</v>
       </c>
       <c r="R49" t="n">
-        <v>7229457.964914861</v>
+        <v>7229509.406141053</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6213,7 +6133,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6223,7 +6143,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6234,26 +6154,41 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67710742</v>
+        <v>67706228</v>
       </c>
       <c r="B50" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6266,42 +6201,37 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539531.9088621398</v>
+        <v>539856.6246416919</v>
       </c>
       <c r="R50" t="n">
-        <v>7229392.998461411</v>
+        <v>7229523.843684183</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6330,7 +6260,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6340,7 +6270,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6351,26 +6281,41 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67710791</v>
+        <v>67710747</v>
       </c>
       <c r="B51" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6383,34 +6328,39 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>539530.1997320191</v>
+        <v>540012.1608302678</v>
       </c>
       <c r="R51" t="n">
-        <v>7229332.042725397</v>
+        <v>7229439.80179003</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6442,7 +6392,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6452,7 +6402,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6479,10 +6429,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67710733</v>
+        <v>67710774</v>
       </c>
       <c r="B52" t="n">
-        <v>73693</v>
+        <v>77588</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6495,21 +6445,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6519,10 +6469,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>539882.8589315277</v>
+        <v>539977.8280576558</v>
       </c>
       <c r="R52" t="n">
-        <v>7229419.144382467</v>
+        <v>7229583.048203739</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6554,7 +6504,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6564,7 +6514,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6591,10 +6541,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67710819</v>
+        <v>67706219</v>
       </c>
       <c r="B53" t="n">
-        <v>85703</v>
+        <v>56395</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6607,37 +6557,42 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>539553.0556394423</v>
+        <v>539926.2054055299</v>
       </c>
       <c r="R53" t="n">
-        <v>7229321.842682262</v>
+        <v>7229573.946429383</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6666,7 +6621,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6676,7 +6631,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6691,22 +6646,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67710739</v>
+        <v>67706234</v>
       </c>
       <c r="B54" t="n">
-        <v>89392</v>
+        <v>73693</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6719,37 +6674,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>539572.1639478829</v>
+        <v>539850.3223403923</v>
       </c>
       <c r="R54" t="n">
-        <v>7229340.168385772</v>
+        <v>7229554.433527336</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6778,7 +6733,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6788,7 +6743,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6799,26 +6754,41 @@
       </c>
       <c r="AG54" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ54" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>67710758</v>
+        <v>67710777</v>
       </c>
       <c r="B55" t="n">
-        <v>78596</v>
+        <v>77588</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6827,25 +6797,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6462</v>
+        <v>864</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6855,10 +6825,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>539709.8590008343</v>
+        <v>539893.0507496882</v>
       </c>
       <c r="R55" t="n">
-        <v>7229394.123140741</v>
+        <v>7229412.138169388</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6890,7 +6860,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6900,7 +6870,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6927,10 +6897,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67710796</v>
+        <v>67710734</v>
       </c>
       <c r="B56" t="n">
-        <v>89406</v>
+        <v>73693</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6943,21 +6913,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1204</v>
+        <v>6440</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6967,10 +6937,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>539947.7964055581</v>
+        <v>539989.1279737254</v>
       </c>
       <c r="R56" t="n">
-        <v>7229377.158534218</v>
+        <v>7229463.022180794</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7002,7 +6972,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7012,7 +6982,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7039,10 +7009,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67710783</v>
+        <v>67706165</v>
       </c>
       <c r="B57" t="n">
-        <v>89388</v>
+        <v>81236</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7055,37 +7025,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>539557.9573167545</v>
+        <v>539854.5271692498</v>
       </c>
       <c r="R57" t="n">
-        <v>7229332.834304744</v>
+        <v>7229523.395195113</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7114,7 +7084,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7124,7 +7094,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7135,26 +7105,41 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67710812</v>
+        <v>67710795</v>
       </c>
       <c r="B58" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7167,21 +7152,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7191,10 +7176,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>539550.8961394634</v>
+        <v>539880.9881427098</v>
       </c>
       <c r="R58" t="n">
-        <v>7229326.016109279</v>
+        <v>7229401.890061609</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7226,7 +7211,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7236,7 +7221,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7263,10 +7248,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67710807</v>
+        <v>67706233</v>
       </c>
       <c r="B59" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7279,37 +7264,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>539689.8428881743</v>
+        <v>539847.9557259007</v>
       </c>
       <c r="R59" t="n">
-        <v>7229380.82735754</v>
+        <v>7229511.540819381</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7338,7 +7323,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7348,7 +7333,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7359,26 +7344,41 @@
       </c>
       <c r="AG59" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ59" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67710793</v>
+        <v>67710733</v>
       </c>
       <c r="B60" t="n">
-        <v>89406</v>
+        <v>73693</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7391,21 +7391,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1204</v>
+        <v>6440</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7415,10 +7415,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>539666.1343749765</v>
+        <v>539882.8589315277</v>
       </c>
       <c r="R60" t="n">
-        <v>7229391.855145359</v>
+        <v>7229419.144382467</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7487,7 +7487,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67710794</v>
+        <v>67710796</v>
       </c>
       <c r="B61" t="n">
         <v>89406</v>
@@ -7527,10 +7527,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>539683.0166307472</v>
+        <v>539947.7964055581</v>
       </c>
       <c r="R61" t="n">
-        <v>7229387.879516553</v>
+        <v>7229377.158534218</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AD61" t="b">

--- a/artfynd/A 17055-2023.xlsx
+++ b/artfynd/A 17055-2023.xlsx
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67710770</v>
+        <v>67706178</v>
       </c>
       <c r="B5" t="n">
-        <v>77588</v>
+        <v>89406</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,37 +1032,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>864</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>539613.1683909117</v>
+        <v>539927.9736440091</v>
       </c>
       <c r="R5" t="n">
-        <v>7229357.106561611</v>
+        <v>7229598.761921383</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1112,26 +1112,41 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67710744</v>
+        <v>67710770</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>77588</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,39 +1159,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>539570.9188615695</v>
+        <v>539613.1683909117</v>
       </c>
       <c r="R6" t="n">
-        <v>7229338.891026534</v>
+        <v>7229357.106561611</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1208,7 +1218,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1228,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:07</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>67710803</v>
+        <v>67710760</v>
       </c>
       <c r="B7" t="n">
-        <v>89410</v>
+        <v>89338</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1271,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>112</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1295,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>539565.991271107</v>
+        <v>539893.0507496882</v>
       </c>
       <c r="R7" t="n">
-        <v>7229424.130576663</v>
+        <v>7229412.138169388</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1320,7 +1330,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1330,7 +1340,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1357,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67710732</v>
+        <v>67710775</v>
       </c>
       <c r="B8" t="n">
-        <v>73693</v>
+        <v>77588</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1373,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>864</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>539530.0206916082</v>
+        <v>539975.8898702682</v>
       </c>
       <c r="R8" t="n">
-        <v>7229313.970340237</v>
+        <v>7229601.930808795</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1432,7 +1442,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1442,7 +1452,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1469,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67710789</v>
+        <v>67710808</v>
       </c>
       <c r="B9" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1485,21 +1495,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1509,10 +1519,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>539552.9401369612</v>
+        <v>539973.9678606169</v>
       </c>
       <c r="R9" t="n">
-        <v>7229424.796336777</v>
+        <v>7229432.981737692</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1544,7 +1554,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1554,7 +1564,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1581,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67706232</v>
+        <v>67706246</v>
       </c>
       <c r="B10" t="n">
-        <v>73693</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1593,25 +1603,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1621,10 +1631,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>539537.8281410345</v>
+        <v>539874.6707526103</v>
       </c>
       <c r="R10" t="n">
-        <v>7229516.620457728</v>
+        <v>7229495.933203975</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1708,10 +1718,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>67706163</v>
+        <v>67710744</v>
       </c>
       <c r="B11" t="n">
-        <v>81236</v>
+        <v>56395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,37 +1734,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>539536.9925042229</v>
+        <v>539570.9188615695</v>
       </c>
       <c r="R11" t="n">
-        <v>7229516.189074448</v>
+        <v>7229338.891026534</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1783,7 +1798,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1793,7 +1808,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1804,41 +1819,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>67710731</v>
+        <v>67710803</v>
       </c>
       <c r="B12" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,21 +1851,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>539536.8057245283</v>
+        <v>539565.991271107</v>
       </c>
       <c r="R12" t="n">
-        <v>7229372.893212735</v>
+        <v>7229424.130576663</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:58</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>67710771</v>
+        <v>67710732</v>
       </c>
       <c r="B13" t="n">
-        <v>77588</v>
+        <v>73693</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>864</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>539663.8247409762</v>
+        <v>539530.0206916082</v>
       </c>
       <c r="R13" t="n">
-        <v>7229375.855628529</v>
+        <v>7229313.970340237</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2059,10 +2059,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>67710767</v>
+        <v>67710789</v>
       </c>
       <c r="B14" t="n">
-        <v>89673</v>
+        <v>89406</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>539609.0181813082</v>
+        <v>539552.9401369612</v>
       </c>
       <c r="R14" t="n">
-        <v>7229352.848662892</v>
+        <v>7229424.796336777</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:05</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2171,10 +2171,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>67710779</v>
+        <v>67710748</v>
       </c>
       <c r="B15" t="n">
-        <v>77588</v>
+        <v>56395</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2187,34 +2187,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>864</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>539553.0556394423</v>
+        <v>540019.8401054546</v>
       </c>
       <c r="R15" t="n">
-        <v>7229321.842682262</v>
+        <v>7229463.017647208</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2246,7 +2251,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2256,7 +2261,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>13:22</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2283,10 +2288,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>67710745</v>
+        <v>67706232</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2299,42 +2304,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>539616.864150109</v>
+        <v>539537.8281410345</v>
       </c>
       <c r="R16" t="n">
-        <v>7229363.879731895</v>
+        <v>7229516.620457728</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2384,26 +2384,41 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>67710730</v>
+        <v>67706163</v>
       </c>
       <c r="B17" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2416,37 +2431,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>539560.0629258815</v>
+        <v>539536.9925042229</v>
       </c>
       <c r="R17" t="n">
-        <v>7229426.992750257</v>
+        <v>7229516.189074448</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2475,7 +2490,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2485,7 +2500,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2496,26 +2511,41 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67710798</v>
+        <v>67710780</v>
       </c>
       <c r="B18" t="n">
-        <v>89734</v>
+        <v>55608</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,38 +2554,52 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2063</v>
+        <v>102612</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>539521.9214653133</v>
+        <v>539887.110713792</v>
       </c>
       <c r="R18" t="n">
-        <v>7229321.846464843</v>
+        <v>7229415.839992717</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2587,7 +2631,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2597,7 +2641,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>13:02</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2624,10 +2668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>67710766</v>
+        <v>67710773</v>
       </c>
       <c r="B19" t="n">
-        <v>89673</v>
+        <v>77588</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2640,21 +2684,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>658</v>
+        <v>864</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2664,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>539575.8992003654</v>
+        <v>539984.8818256899</v>
       </c>
       <c r="R19" t="n">
-        <v>7229344.00046342</v>
+        <v>7229465.906234877</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2699,7 +2743,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2709,7 +2753,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:02</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2736,10 +2780,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>67706177</v>
+        <v>67706164</v>
       </c>
       <c r="B20" t="n">
-        <v>89406</v>
+        <v>81236</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2752,21 +2796,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2776,10 +2820,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>539534.5080710157</v>
+        <v>539845.4602696267</v>
       </c>
       <c r="R20" t="n">
-        <v>7229513.214405228</v>
+        <v>7229509.406141053</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2863,10 +2907,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67710821</v>
+        <v>67706228</v>
       </c>
       <c r="B21" t="n">
-        <v>90052</v>
+        <v>89392</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2875,41 +2919,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>898</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blackticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Steccherinum collabens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Vesterholt</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>539525.1406392561</v>
+        <v>539856.6246416919</v>
       </c>
       <c r="R21" t="n">
-        <v>7229332.815533601</v>
+        <v>7229523.843684183</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2938,7 +2982,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2948,7 +2992,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:23</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2959,26 +3003,41 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>67710772</v>
+        <v>67710731</v>
       </c>
       <c r="B22" t="n">
-        <v>77588</v>
+        <v>73693</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2991,21 +3050,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>864</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3015,10 +3074,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>539731.1425143741</v>
+        <v>539536.8057245283</v>
       </c>
       <c r="R22" t="n">
-        <v>7229407.015819971</v>
+        <v>7229372.893212735</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3050,7 +3109,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3060,7 +3119,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:33</t>
+          <t>10:58</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3087,10 +3146,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67710790</v>
+        <v>67710771</v>
       </c>
       <c r="B23" t="n">
-        <v>89406</v>
+        <v>77588</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3103,21 +3162,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1204</v>
+        <v>864</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3127,10 +3186,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>539543.0432979728</v>
+        <v>539663.8247409762</v>
       </c>
       <c r="R23" t="n">
-        <v>7229346.922569324</v>
+        <v>7229375.855628529</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3162,7 +3221,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3172,7 +3231,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3199,7 +3258,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67710743</v>
+        <v>67710747</v>
       </c>
       <c r="B24" t="n">
         <v>56395</v>
@@ -3244,10 +3303,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>539568.1317676745</v>
+        <v>540012.1608302678</v>
       </c>
       <c r="R24" t="n">
-        <v>7229327.087245424</v>
+        <v>7229439.80179003</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3279,7 +3338,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3289,7 +3348,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>11:48</t>
+          <t>13:21</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3316,10 +3375,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>67710811</v>
+        <v>67710767</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>89673</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3332,21 +3391,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3356,10 +3415,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>539530.162104459</v>
+        <v>539609.0181813082</v>
       </c>
       <c r="R25" t="n">
-        <v>7229492.145932948</v>
+        <v>7229352.848662892</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3391,7 +3450,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3401,7 +3460,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3428,10 +3487,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>67710738</v>
+        <v>67710779</v>
       </c>
       <c r="B26" t="n">
-        <v>89392</v>
+        <v>77588</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3444,21 +3503,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>864</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3468,10 +3527,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>539549.9086617061</v>
+        <v>539553.0556394423</v>
       </c>
       <c r="R26" t="n">
-        <v>7229336.928908376</v>
+        <v>7229321.842682262</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3503,7 +3562,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3513,7 +3572,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3540,10 +3599,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>67710754</v>
+        <v>67710774</v>
       </c>
       <c r="B27" t="n">
-        <v>90160</v>
+        <v>77588</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3552,25 +3611,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>918</v>
+        <v>864</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tajgaskinn</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Laurilia sulcata</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Burt) Pouzar</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3580,10 +3639,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>539553.9107346898</v>
+        <v>539977.8280576558</v>
       </c>
       <c r="R27" t="n">
-        <v>7229415.144295254</v>
+        <v>7229583.048203739</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3615,7 +3674,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3625,7 +3684,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3652,10 +3711,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>67710768</v>
+        <v>67710745</v>
       </c>
       <c r="B28" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3668,34 +3727,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>539664.1100763381</v>
+        <v>539616.864150109</v>
       </c>
       <c r="R28" t="n">
-        <v>7229385.944850254</v>
+        <v>7229363.879731895</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3727,7 +3791,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3737,7 +3801,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:18</t>
+          <t>12:09</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3764,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67710765</v>
+        <v>67710730</v>
       </c>
       <c r="B29" t="n">
-        <v>89673</v>
+        <v>73693</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3780,21 +3844,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>6440</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3804,10 +3868,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>539525.1406392561</v>
+        <v>539560.0629258815</v>
       </c>
       <c r="R29" t="n">
-        <v>7229332.815533601</v>
+        <v>7229426.992750257</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3839,7 +3903,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3849,7 +3913,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3876,10 +3940,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67710802</v>
+        <v>67710798</v>
       </c>
       <c r="B30" t="n">
-        <v>89410</v>
+        <v>89734</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3888,25 +3952,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>2063</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3916,10 +3980,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>539550.813433812</v>
+        <v>539521.9214653133</v>
       </c>
       <c r="R30" t="n">
-        <v>7229457.964914861</v>
+        <v>7229321.846464843</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3951,7 +4015,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3961,7 +4025,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:34</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3988,10 +4052,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>67710742</v>
+        <v>67710766</v>
       </c>
       <c r="B31" t="n">
-        <v>56395</v>
+        <v>89673</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4004,39 +4068,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>539531.9088621398</v>
+        <v>539575.8992003654</v>
       </c>
       <c r="R31" t="n">
-        <v>7229392.998461411</v>
+        <v>7229344.00046342</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4068,7 +4127,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4078,7 +4137,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>12:02</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4105,10 +4164,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>67710791</v>
+        <v>67706219</v>
       </c>
       <c r="B32" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4121,37 +4180,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>539530.1997320191</v>
+        <v>539926.2054055299</v>
       </c>
       <c r="R32" t="n">
-        <v>7229332.042725397</v>
+        <v>7229573.946429383</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4180,7 +4244,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4190,7 +4254,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4205,22 +4269,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>67710819</v>
+        <v>67706234</v>
       </c>
       <c r="B33" t="n">
-        <v>85703</v>
+        <v>73693</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4233,37 +4297,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>510</v>
+        <v>6440</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>539553.0556394423</v>
+        <v>539850.3223403923</v>
       </c>
       <c r="R33" t="n">
-        <v>7229321.842682262</v>
+        <v>7229554.433527336</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4292,7 +4356,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4302,7 +4366,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4313,26 +4377,41 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67710739</v>
+        <v>67706177</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4345,37 +4424,37 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>539572.1639478829</v>
+        <v>539534.5080710157</v>
       </c>
       <c r="R34" t="n">
-        <v>7229340.168385772</v>
+        <v>7229513.214405228</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4404,7 +4483,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4414,7 +4493,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4425,26 +4504,41 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67710758</v>
+        <v>67710821</v>
       </c>
       <c r="B35" t="n">
-        <v>78596</v>
+        <v>90052</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4453,25 +4547,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6462</v>
+        <v>898</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blackticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Steccherinum collabens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Vesterholt</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4481,10 +4575,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>539709.8590008343</v>
+        <v>539525.1406392561</v>
       </c>
       <c r="R35" t="n">
-        <v>7229394.123140741</v>
+        <v>7229332.815533601</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4516,7 +4610,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4526,7 +4620,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4553,10 +4647,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67710783</v>
+        <v>67710772</v>
       </c>
       <c r="B36" t="n">
-        <v>89388</v>
+        <v>77588</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4569,21 +4663,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1108</v>
+        <v>864</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4593,10 +4687,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>539557.9573167545</v>
+        <v>539731.1425143741</v>
       </c>
       <c r="R36" t="n">
-        <v>7229332.834304744</v>
+        <v>7229407.015819971</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4628,7 +4722,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4638,7 +4732,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>12:33</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4665,10 +4759,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67710812</v>
+        <v>67710777</v>
       </c>
       <c r="B37" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4681,21 +4775,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4705,10 +4799,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>539550.8961394634</v>
+        <v>539893.0507496882</v>
       </c>
       <c r="R37" t="n">
-        <v>7229326.016109279</v>
+        <v>7229412.138169388</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4740,7 +4834,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4750,7 +4844,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>12:47</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4777,10 +4871,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>67710807</v>
+        <v>67710734</v>
       </c>
       <c r="B38" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4793,21 +4887,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4817,10 +4911,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>539689.8428881743</v>
+        <v>539989.1279737254</v>
       </c>
       <c r="R38" t="n">
-        <v>7229380.82735754</v>
+        <v>7229463.022180794</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4852,7 +4946,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4862,7 +4956,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4889,7 +4983,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>67710793</v>
+        <v>67710790</v>
       </c>
       <c r="B39" t="n">
         <v>89406</v>
@@ -4929,10 +5023,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>539666.1343749765</v>
+        <v>539543.0432979728</v>
       </c>
       <c r="R39" t="n">
-        <v>7229391.855145359</v>
+        <v>7229346.922569324</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4964,7 +5058,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4974,7 +5068,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>12:19</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5001,10 +5095,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>67710794</v>
+        <v>67710743</v>
       </c>
       <c r="B40" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5017,34 +5111,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>539683.0166307472</v>
+        <v>539568.1317676745</v>
       </c>
       <c r="R40" t="n">
-        <v>7229387.879516553</v>
+        <v>7229327.087245424</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5076,7 +5175,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5086,7 +5185,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:48</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5113,10 +5212,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>67706178</v>
+        <v>67710811</v>
       </c>
       <c r="B41" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5129,37 +5228,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>539927.9736440091</v>
+        <v>539530.162104459</v>
       </c>
       <c r="R41" t="n">
-        <v>7229598.761921383</v>
+        <v>7229492.145932948</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5188,7 +5287,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5198,7 +5297,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:29</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5209,41 +5308,26 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>67710760</v>
+        <v>67706165</v>
       </c>
       <c r="B42" t="n">
-        <v>89338</v>
+        <v>81236</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5256,37 +5340,37 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>112</v>
+        <v>1312</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>539893.0507496882</v>
+        <v>539854.5271692498</v>
       </c>
       <c r="R42" t="n">
-        <v>7229412.138169388</v>
+        <v>7229523.395195113</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5315,7 +5399,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5325,7 +5409,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5336,26 +5420,41 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67710775</v>
+        <v>67710738</v>
       </c>
       <c r="B43" t="n">
-        <v>77588</v>
+        <v>89392</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5368,21 +5467,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>864</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5392,10 +5491,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>539975.8898702682</v>
+        <v>539549.9086617061</v>
       </c>
       <c r="R43" t="n">
-        <v>7229601.930808795</v>
+        <v>7229336.928908376</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5427,7 +5526,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5437,7 +5536,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5464,10 +5563,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67710808</v>
+        <v>67710754</v>
       </c>
       <c r="B44" t="n">
-        <v>89410</v>
+        <v>90160</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5476,25 +5575,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>918</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tajgaskinn</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Laurilia sulcata</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Burt) Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5504,10 +5603,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>539973.9678606169</v>
+        <v>539553.9107346898</v>
       </c>
       <c r="R44" t="n">
-        <v>7229432.981737692</v>
+        <v>7229415.144295254</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5539,7 +5638,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5549,7 +5648,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5576,10 +5675,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67706246</v>
+        <v>67710795</v>
       </c>
       <c r="B45" t="n">
-        <v>89356</v>
+        <v>89406</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5588,41 +5687,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>539874.6707526103</v>
+        <v>539880.9881427098</v>
       </c>
       <c r="R45" t="n">
-        <v>7229495.933203975</v>
+        <v>7229401.890061609</v>
       </c>
       <c r="S45" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5651,7 +5750,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5661,7 +5760,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5672,41 +5771,26 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67710748</v>
+        <v>67706233</v>
       </c>
       <c r="B46" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5719,42 +5803,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Krutskogen, Ås lm</t>
+          <t>Tallberget, Västansjö, Ås lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>540019.8401054546</v>
+        <v>539847.9557259007</v>
       </c>
       <c r="R46" t="n">
-        <v>7229463.017647208</v>
+        <v>7229511.540819381</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5783,7 +5862,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5793,7 +5872,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>13:22</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5804,26 +5883,41 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>67710780</v>
+        <v>67710768</v>
       </c>
       <c r="B47" t="n">
-        <v>55608</v>
+        <v>89673</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5836,48 +5930,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>102612</v>
+        <v>658</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>stationär</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>539887.110713792</v>
+        <v>539664.1100763381</v>
       </c>
       <c r="R47" t="n">
-        <v>7229415.839992717</v>
+        <v>7229385.944850254</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5909,7 +5989,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5919,7 +5999,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>13:02</t>
+          <t>12:18</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5946,10 +6026,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>67710773</v>
+        <v>67710765</v>
       </c>
       <c r="B48" t="n">
-        <v>77588</v>
+        <v>89673</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5962,21 +6042,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>864</v>
+        <v>658</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5986,10 +6066,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>539984.8818256899</v>
+        <v>539525.1406392561</v>
       </c>
       <c r="R48" t="n">
-        <v>7229465.906234877</v>
+        <v>7229332.815533601</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6021,7 +6101,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -6031,7 +6111,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6058,10 +6138,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67706164</v>
+        <v>67710802</v>
       </c>
       <c r="B49" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6074,37 +6154,37 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>539845.4602696267</v>
+        <v>539550.813433812</v>
       </c>
       <c r="R49" t="n">
-        <v>7229509.406141053</v>
+        <v>7229457.964914861</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6133,7 +6213,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -6143,7 +6223,7 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:34</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6154,41 +6234,26 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>67706228</v>
+        <v>67710742</v>
       </c>
       <c r="B50" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6201,37 +6266,42 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>539856.6246416919</v>
+        <v>539531.9088621398</v>
       </c>
       <c r="R50" t="n">
-        <v>7229523.843684183</v>
+        <v>7229392.998461411</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6260,7 +6330,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6270,7 +6340,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6281,41 +6351,26 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>67710747</v>
+        <v>67710791</v>
       </c>
       <c r="B51" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6328,39 +6383,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>540012.1608302678</v>
+        <v>539530.1997320191</v>
       </c>
       <c r="R51" t="n">
-        <v>7229439.80179003</v>
+        <v>7229332.042725397</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6392,7 +6442,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6402,7 +6452,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6429,10 +6479,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>67710774</v>
+        <v>67710733</v>
       </c>
       <c r="B52" t="n">
-        <v>77588</v>
+        <v>73693</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6445,21 +6495,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>864</v>
+        <v>6440</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6469,10 +6519,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>539977.8280576558</v>
+        <v>539882.8589315277</v>
       </c>
       <c r="R52" t="n">
-        <v>7229583.048203739</v>
+        <v>7229419.144382467</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6504,7 +6554,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6514,7 +6564,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>12:50</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6541,10 +6591,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67706219</v>
+        <v>67710819</v>
       </c>
       <c r="B53" t="n">
-        <v>56395</v>
+        <v>85703</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6557,42 +6607,37 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>539926.2054055299</v>
+        <v>539553.0556394423</v>
       </c>
       <c r="R53" t="n">
-        <v>7229573.946429383</v>
+        <v>7229321.842682262</v>
       </c>
       <c r="S53" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6621,7 +6666,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6631,7 +6676,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6646,22 +6691,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67706234</v>
+        <v>67710739</v>
       </c>
       <c r="B54" t="n">
-        <v>73693</v>
+        <v>89392</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6674,37 +6719,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>539850.3223403923</v>
+        <v>539572.1639478829</v>
       </c>
       <c r="R54" t="n">
-        <v>7229554.433527336</v>
+        <v>7229340.168385772</v>
       </c>
       <c r="S54" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6733,7 +6778,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6743,7 +6788,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6754,41 +6799,26 @@
       </c>
       <c r="AG54" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>67710777</v>
+        <v>67710758</v>
       </c>
       <c r="B55" t="n">
-        <v>77588</v>
+        <v>78596</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6797,25 +6827,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>864</v>
+        <v>6462</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6825,10 +6855,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>539893.0507496882</v>
+        <v>539709.8590008343</v>
       </c>
       <c r="R55" t="n">
-        <v>7229412.138169388</v>
+        <v>7229394.123140741</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6860,7 +6890,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6870,7 +6900,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>12:47</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6897,10 +6927,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>67710734</v>
+        <v>67710796</v>
       </c>
       <c r="B56" t="n">
-        <v>73693</v>
+        <v>89406</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6913,21 +6943,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6440</v>
+        <v>1204</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6937,10 +6967,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>539989.1279737254</v>
+        <v>539947.7964055581</v>
       </c>
       <c r="R56" t="n">
-        <v>7229463.022180794</v>
+        <v>7229377.158534218</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6972,7 +7002,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6982,7 +7012,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7009,10 +7039,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>67706165</v>
+        <v>67710783</v>
       </c>
       <c r="B57" t="n">
-        <v>81236</v>
+        <v>89388</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7025,37 +7055,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>539854.5271692498</v>
+        <v>539557.9573167545</v>
       </c>
       <c r="R57" t="n">
-        <v>7229523.395195113</v>
+        <v>7229332.834304744</v>
       </c>
       <c r="S57" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7084,7 +7114,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7094,7 +7124,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7105,41 +7135,26 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>67710795</v>
+        <v>67710812</v>
       </c>
       <c r="B58" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7152,21 +7167,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7176,10 +7191,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>539880.9881427098</v>
+        <v>539550.8961394634</v>
       </c>
       <c r="R58" t="n">
-        <v>7229401.890061609</v>
+        <v>7229326.016109279</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7211,7 +7226,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -7221,7 +7236,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7248,10 +7263,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67706233</v>
+        <v>67710807</v>
       </c>
       <c r="B59" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7264,37 +7279,37 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Tallberget, Västansjö, Ås lm</t>
+          <t>Krutskogen, Ås lm</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>539847.9557259007</v>
+        <v>539689.8428881743</v>
       </c>
       <c r="R59" t="n">
-        <v>7229511.540819381</v>
+        <v>7229380.82735754</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7323,7 +7338,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -7333,7 +7348,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7344,41 +7359,26 @@
       </c>
       <c r="AG59" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Billy Lindblom, Hanna Eriksson</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67710733</v>
+        <v>67710793</v>
       </c>
       <c r="B60" t="n">
-        <v>73693</v>
+        <v>89406</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7391,21 +7391,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6440</v>
+        <v>1204</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7415,10 +7415,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>539882.8589315277</v>
+        <v>539666.1343749765</v>
       </c>
       <c r="R60" t="n">
-        <v>7229419.144382467</v>
+        <v>7229391.855145359</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:19</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7487,7 +7487,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>67710796</v>
+        <v>67710794</v>
       </c>
       <c r="B61" t="n">
         <v>89406</v>
@@ -7527,10 +7527,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>539947.7964055581</v>
+        <v>539683.0166307472</v>
       </c>
       <c r="R61" t="n">
-        <v>7229377.158534218</v>
+        <v>7229387.879516553</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD61" t="b">
